--- a/docs/timesheet.xlsx
+++ b/docs/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quintenleysen/Documents/CMS_DEV_EK2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41F5EC5E-24F5-D94B-9C06-4AA9A1CDC392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1957F8-6D31-5242-A872-DF3F8FA2D17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17560" yWindow="3860" windowWidth="16940" windowHeight="17440" xr2:uid="{66C55ACF-A4D1-3143-8ADA-E64AE8F926C3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Timesheet</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Kleine fixes</t>
+  </si>
+  <si>
+    <t>Quinten Leysen</t>
+  </si>
+  <si>
+    <t>CMS-DEV EK-2</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
   <dimension ref="C3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -470,6 +476,12 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
